--- a/database/files/import.xlsx
+++ b/database/files/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\pforret\Code\generation\database\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C33CF-4467-429B-82E7-4890D925BEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F9C66-1AC4-421B-A97B-7143F6BACF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31770" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generations" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="events" sheetId="2" r:id="rId3"/>
     <sheet name="people" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">people!$A$1:$E$43</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="350">
   <si>
     <t>title</t>
   </si>
@@ -315,9 +318,6 @@
     <t>Harrison Ford</t>
   </si>
   <si>
-    <t>Movies</t>
-  </si>
-  <si>
     <t>Joe Biden</t>
   </si>
   <si>
@@ -630,9 +630,6 @@
     <t>Trevor Noah</t>
   </si>
   <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
     <t>South-africa</t>
   </si>
   <si>
@@ -660,9 +657,6 @@
     <t>Nicolas Sarkozy</t>
   </si>
   <si>
-    <t>Prince Rogers Nelson</t>
-  </si>
-  <si>
     <t>Jon Stewart</t>
   </si>
   <si>
@@ -880,6 +874,213 @@
   </si>
   <si>
     <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Paul McCartney</t>
+  </si>
+  <si>
+    <t>Mick Jagger</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Sydney Sweeney</t>
+  </si>
+  <si>
+    <t>Tom Holland</t>
+  </si>
+  <si>
+    <t>Daniel Radcliffe</t>
+  </si>
+  <si>
+    <t>Emma Watson</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino</t>
+  </si>
+  <si>
+    <t>Martin Scorcese</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t>Stanley Kubrick</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Francis Ford Coppola</t>
+  </si>
+  <si>
+    <t>Musician</t>
+  </si>
+  <si>
+    <t>"Prince" Rogers Nelson</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Liam Neeson</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>Robert de Niro</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>Nicole Kidman</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Charlize Theron</t>
+  </si>
+  <si>
+    <t>Margot Robbie</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Jennifer Lawrence</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/2014_celebrity_nude_photo_leak</t>
+  </si>
+  <si>
+    <t>Society</t>
+  </si>
+  <si>
+    <t>2014 celebrity nude photo leak</t>
+  </si>
+  <si>
+    <t>First performance of the Beatles on the US Ed Sullivan show</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Pete Davidson</t>
+  </si>
+  <si>
+    <t>Comedian</t>
+  </si>
+  <si>
+    <t>Lenny Kravitz</t>
+  </si>
+  <si>
+    <t>Zoe Kravitz</t>
+  </si>
+  <si>
+    <t>Robert Pattinson</t>
+  </si>
+  <si>
+    <t>Kristen Stewart</t>
+  </si>
+  <si>
+    <t>Jenna Ortega</t>
+  </si>
+  <si>
+    <t>Salma Hayek</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Penelope Cruz</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Woody Allen</t>
+  </si>
+  <si>
+    <t>Jim Carrey</t>
+  </si>
+  <si>
+    <t>Conan O'Brien</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>Rachel McAdams</t>
+  </si>
+  <si>
+    <t>Ryan Gosling</t>
+  </si>
+  <si>
+    <t>/images/people/joe_biden.jpg</t>
+  </si>
+  <si>
+    <t>/images/people/aoc.jpg</t>
+  </si>
+  <si>
+    <t>Jennifer Aniston</t>
+  </si>
+  <si>
+    <t>Christopher Nolan</t>
+  </si>
+  <si>
+    <t>/images/people/louis-ck.jpg</t>
+  </si>
+  <si>
+    <t>Jimmy Carter</t>
+  </si>
+  <si>
+    <t>Richard Nixon</t>
+  </si>
+  <si>
+    <t>George H.W. Bush</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>George W. Bush</t>
+  </si>
+  <si>
+    <t>Gregory Peck</t>
+  </si>
+  <si>
+    <t>Sydney Poitier</t>
+  </si>
+  <si>
+    <t>Martin Luther King</t>
+  </si>
+  <si>
+    <t>Malcolm X</t>
+  </si>
+  <si>
+    <t>Religion</t>
   </si>
 </sst>
 </file>
@@ -1253,22 +1454,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -1276,10 +1477,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
       </c>
       <c r="C2">
         <v>1883</v>
@@ -1288,15 +1489,15 @@
         <v>1900</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>128</v>
       </c>
       <c r="C3">
         <v>1901</v>
@@ -1305,15 +1506,15 @@
         <v>1913</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
         <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>130</v>
       </c>
       <c r="C4">
         <v>1914</v>
@@ -1322,15 +1523,15 @@
         <v>1924</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
         <v>131</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
       </c>
       <c r="C5">
         <v>1925</v>
@@ -1339,15 +1540,15 @@
         <v>1945</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
         <v>133</v>
-      </c>
-      <c r="B6" t="s">
-        <v>134</v>
       </c>
       <c r="C6">
         <v>1946</v>
@@ -1356,18 +1557,18 @@
         <v>1964</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7">
         <v>1965</v>
@@ -1376,18 +1577,18 @@
         <v>1980</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8">
         <v>1981</v>
@@ -1396,18 +1597,18 @@
         <v>1996</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9">
         <v>1997</v>
@@ -1416,18 +1617,18 @@
         <v>2012</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
         <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
       </c>
       <c r="C10">
         <v>2013</v>
@@ -1436,7 +1637,7 @@
         <v>2024</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1463,13 +1664,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1478,143 +1679,143 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1645,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2767A71C-EE11-4B74-AD89-9BB89734587C}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1901,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B3" s="1">
         <v>5293</v>
@@ -1771,7 +1972,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B7" s="1">
         <v>14594</v>
@@ -1780,10 +1981,10 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>33</v>
@@ -1856,7 +2057,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B12" s="1">
         <v>22083</v>
@@ -1865,7 +2066,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,7 +2108,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B15" s="1">
         <v>26372</v>
@@ -1927,7 +2128,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>42</v>
@@ -1955,19 +2156,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B18" s="1">
         <v>28270</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1987,13 +2188,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B20" s="1">
         <v>28871</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -2001,19 +2202,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="1">
         <v>29105</v>
       </c>
       <c r="C21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="D21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,7 +2228,7 @@
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>51</v>
@@ -2035,7 +2236,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B23" s="1">
         <v>29563</v>
@@ -2044,15 +2245,15 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" s="1">
         <v>29724</v>
@@ -2061,13 +2262,13 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>53</v>
@@ -2089,7 +2290,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="1">
         <v>30284</v>
@@ -2098,32 +2299,32 @@
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B27" s="1">
         <v>30388</v>
       </c>
       <c r="C27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="D27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B28" s="1">
         <v>30981</v>
@@ -2132,18 +2333,18 @@
         <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B29" s="1">
         <v>31018</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
         <v>58</v>
@@ -2160,12 +2361,12 @@
         <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="1">
         <v>31322</v>
@@ -2174,13 +2375,13 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2205,7 +2406,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B33" s="1">
         <v>32336</v>
@@ -2214,27 +2415,27 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B34" s="1">
         <v>32591</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2259,30 +2460,30 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B36" s="1">
         <v>33187</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B37" s="1">
         <v>34425</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -2290,24 +2491,24 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B38" s="1">
         <v>34455</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B39" s="1">
         <v>34599</v>
@@ -2316,55 +2517,55 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B40" s="1">
         <v>34935</v>
       </c>
       <c r="C40" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="1">
         <v>35278</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B42" s="1">
         <v>35735</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D42" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2389,19 +2590,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B44" s="1">
         <v>36962</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2450,12 +2651,12 @@
         <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B48" s="1">
         <v>38218</v>
@@ -2464,12 +2665,12 @@
         <v>81</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B49" s="1">
         <v>38581</v>
@@ -2478,12 +2679,12 @@
         <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B50" s="1">
         <v>38967</v>
@@ -2492,12 +2693,12 @@
         <v>81</v>
       </c>
       <c r="D50" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B51" s="1">
         <v>39034</v>
@@ -2506,12 +2707,12 @@
         <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B52" s="1">
         <v>39262</v>
@@ -2520,24 +2721,24 @@
         <v>81</v>
       </c>
       <c r="D52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B53" s="1">
         <v>40157</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2562,7 +2763,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B55" s="1">
         <v>40909</v>
@@ -2571,12 +2772,12 @@
         <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B56" s="1">
         <v>41008</v>
@@ -2585,29 +2786,29 @@
         <v>81</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B57" s="1">
         <v>41105</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B58" s="1">
         <v>41426</v>
@@ -2616,12 +2817,12 @@
         <v>81</v>
       </c>
       <c r="D58" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B59" s="1">
         <v>41466</v>
@@ -2630,12 +2831,12 @@
         <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B60" s="1">
         <v>41689</v>
@@ -2644,140 +2845,171 @@
         <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="B61" s="1">
-        <v>42408</v>
+        <v>41882</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>313</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="B62" s="1">
-        <v>42682</v>
+        <v>42408</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>82</v>
+        <v>231</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="B63" s="1">
-        <v>43770</v>
+        <v>42682</v>
       </c>
       <c r="C63" t="s">
         <v>81</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>11</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="B64" s="1">
-        <v>43861</v>
+        <v>43770</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="B65" s="1">
-        <v>43862</v>
+        <v>43861</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>85</v>
+        <v>181</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B66" s="1">
-        <v>44647</v>
+        <v>43862</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="1">
+        <v>44647</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B68" s="1">
         <v>44736</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>90</v>
       </c>
-      <c r="D67" t="s">
-        <v>182</v>
+      <c r="D68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>315</v>
+      </c>
+      <c r="B69" s="1">
+        <v>23416</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F67">
-    <sortCondition ref="B2:B67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F68">
+    <sortCondition ref="B2:B68"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="E45" r:id="rId1" xr:uid="{73B8BB24-D13B-43CD-9DD9-9EC9FE307216}"/>
-    <hyperlink ref="E66" r:id="rId2" xr:uid="{95F104DE-5312-4D5B-A7AC-5124985D788C}"/>
+    <hyperlink ref="E67" r:id="rId2" xr:uid="{95F104DE-5312-4D5B-A7AC-5124985D788C}"/>
     <hyperlink ref="E32" r:id="rId3" xr:uid="{9182495F-7DD4-4A67-B4BF-DFCF381A4594}"/>
     <hyperlink ref="E54" r:id="rId4" xr:uid="{CEBAAEB6-6F12-4FFB-B21F-DC79C27539F6}"/>
     <hyperlink ref="E35" r:id="rId5" location="Fall" xr:uid="{0377D654-2EB3-4A8E-B75F-1EA5A36E3696}"/>
     <hyperlink ref="E14" r:id="rId6" location="Assassination" xr:uid="{F47F6948-BCB6-4E62-823B-B015BAEDA68F}"/>
-    <hyperlink ref="E65" r:id="rId7" xr:uid="{D3D94A30-A492-4C80-958D-337595E39C55}"/>
+    <hyperlink ref="E66" r:id="rId7" xr:uid="{D3D94A30-A492-4C80-958D-337595E39C55}"/>
     <hyperlink ref="E43" r:id="rId8" xr:uid="{8FEA499D-E571-4502-BD12-FF0819D92F29}"/>
     <hyperlink ref="E46" r:id="rId9" xr:uid="{61B26E90-ACC4-4EB2-A5AA-443DF6D76E36}"/>
-    <hyperlink ref="E62" r:id="rId10" location="Election_to_the_presidency" xr:uid="{2F0658E3-84D6-482A-9BFC-819A083C3EE2}"/>
+    <hyperlink ref="E63" r:id="rId10" location="Election_to_the_presidency" xr:uid="{2F0658E3-84D6-482A-9BFC-819A083C3EE2}"/>
     <hyperlink ref="E25" r:id="rId11" xr:uid="{76D0356A-547D-4157-A81E-DED414E12A17}"/>
     <hyperlink ref="E22" r:id="rId12" location="History" xr:uid="{A07E510B-24ED-4BCF-BC8A-46D27A3E67DB}"/>
     <hyperlink ref="E17" r:id="rId13" xr:uid="{B163297A-167F-49FC-92EA-BF1E5BC2F684}"/>
@@ -2799,28 +3031,29 @@
     <hyperlink ref="F24" r:id="rId29" location="History" xr:uid="{5763E96F-E9E0-4F37-82EC-BAEF2EA69500}"/>
     <hyperlink ref="E24" r:id="rId30" location="History" xr:uid="{79042FA3-5915-45F4-853C-2EB6BA4F598D}"/>
     <hyperlink ref="E31" r:id="rId31" location="Illness_and_death" xr:uid="{07780F80-F64A-4C42-92F5-14F3ABD19425}"/>
-    <hyperlink ref="E64" r:id="rId32" xr:uid="{B992CFDB-8A5D-45EE-9BE0-F7C5E6E84377}"/>
+    <hyperlink ref="E65" r:id="rId32" xr:uid="{B992CFDB-8A5D-45EE-9BE0-F7C5E6E84377}"/>
     <hyperlink ref="E44" r:id="rId33" xr:uid="{261CE7AD-6E6B-4EC9-A694-D6F88FA2A768}"/>
     <hyperlink ref="E38" r:id="rId34" location="Reception" xr:uid="{23BEA831-97A5-4E10-8966-1C5C026E04BE}"/>
-    <hyperlink ref="E61" r:id="rId35" location="Release" xr:uid="{7E35B5D9-24A1-4F0A-BF7B-7C64667C6839}"/>
+    <hyperlink ref="E62" r:id="rId35" location="Release" xr:uid="{7E35B5D9-24A1-4F0A-BF7B-7C64667C6839}"/>
     <hyperlink ref="E33" r:id="rId36" location="Release" xr:uid="{1666FAAA-8BCE-4B26-9161-14A011BC7A76}"/>
     <hyperlink ref="E36" r:id="rId37" location="Release" xr:uid="{FBC2BC87-03CC-4ACB-80B7-1BA12D36C59F}"/>
     <hyperlink ref="E34" r:id="rId38" xr:uid="{5F432170-CEA7-415A-B04A-4911E2EB0E98}"/>
     <hyperlink ref="E7" r:id="rId39" location="Release" xr:uid="{E6985E87-5136-4949-A78D-81602FA46C41}"/>
     <hyperlink ref="E42" r:id="rId40" location="Release_and_reception" xr:uid="{468BD8F7-D5D9-4E09-B0DF-5C526264F0C7}"/>
     <hyperlink ref="E23" r:id="rId41" location="Murder:_8_December_1980" xr:uid="{14C421BD-8028-4C5A-9949-6049A5FFAD5F}"/>
+    <hyperlink ref="E61" r:id="rId42" xr:uid="{DE3AEFD9-D38F-4FC5-AAE8-F53D1F1801A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3963B6BB-15F4-4FA3-944E-310632D772C0}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,7 +3065,7 @@
     <col min="5" max="5" width="120" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -2848,551 +3081,1278 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5940</v>
+      </c>
+      <c r="D2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9649</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10717</v>
+      </c>
+      <c r="D4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="6">
+        <v>13627</v>
+      </c>
+      <c r="D5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="6">
+        <v>14726</v>
+      </c>
+      <c r="D6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="6">
+        <v>14942</v>
+      </c>
+      <c r="D7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="6">
+        <v>15535</v>
+      </c>
+      <c r="D8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="6">
+        <v>15935</v>
+      </c>
+      <c r="D9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="6">
+        <v>19152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="6">
+        <v>22663</v>
+      </c>
+      <c r="D11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="6">
+        <v>23622</v>
+      </c>
+      <c r="D12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="6">
+        <v>24352</v>
+      </c>
+      <c r="D13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="6">
+        <v>24643</v>
+      </c>
+      <c r="D14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="6">
+        <v>25106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="6">
+        <v>25245</v>
+      </c>
+      <c r="D16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="6">
+        <v>25706</v>
+      </c>
+      <c r="D17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="6">
+        <v>27147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="6">
+        <v>27613</v>
+      </c>
+      <c r="D19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="6">
+        <v>28056</v>
+      </c>
+      <c r="D20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="6">
+        <v>28811</v>
+      </c>
+      <c r="D21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="6">
+        <v>29537</v>
+      </c>
+      <c r="D22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="6">
+        <v>31545</v>
+      </c>
+      <c r="D23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="6">
+        <v>32478</v>
+      </c>
+      <c r="D24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="6">
+        <v>32712</v>
+      </c>
+      <c r="D25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="6">
+        <v>32972</v>
+      </c>
+      <c r="D26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="6">
+        <v>32978</v>
+      </c>
+      <c r="D27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" s="6">
+        <v>33056</v>
+      </c>
+      <c r="D28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="6">
+        <v>33100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="6">
+        <v>35060</v>
+      </c>
+      <c r="D30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="6">
+        <v>35217</v>
+      </c>
+      <c r="D31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="6">
+        <v>35309</v>
+      </c>
+      <c r="D32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="6">
+        <v>35685</v>
+      </c>
+      <c r="D33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="6">
+        <v>37526</v>
+      </c>
+      <c r="D34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="6">
+        <v>13708</v>
+      </c>
+      <c r="D35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="6">
+        <v>22978</v>
+      </c>
+      <c r="D36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="6">
+        <v>23119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="6">
+        <v>24727</v>
+      </c>
+      <c r="D38" t="s">
+        <v>318</v>
+      </c>
+      <c r="F38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="6">
+        <v>30732</v>
+      </c>
+      <c r="D39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="6">
+        <v>34289</v>
+      </c>
+      <c r="D40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="6">
+        <v>9913</v>
+      </c>
+      <c r="D41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="6">
+        <v>10435</v>
+      </c>
+      <c r="D42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="6">
+        <v>13118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>293</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="6">
+        <v>14342</v>
+      </c>
+      <c r="D44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="6">
+        <v>15662</v>
+      </c>
+      <c r="D45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="6">
+        <v>17154</v>
+      </c>
+      <c r="D46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="6">
+        <v>19952</v>
+      </c>
+      <c r="D47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="6">
+        <v>23097</v>
+      </c>
+      <c r="D48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="6">
+        <v>25779</v>
+      </c>
+      <c r="D49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>281</v>
       </c>
-      <c r="B2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="6">
+        <v>15510</v>
+      </c>
+      <c r="D50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="6">
+        <v>15913</v>
+      </c>
+      <c r="D51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>295</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="6">
+        <v>21343</v>
+      </c>
+      <c r="D52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="6">
+        <v>21426</v>
+      </c>
+      <c r="D53" t="s">
+        <v>294</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>316</v>
+      </c>
+      <c r="B54" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="6">
+        <v>22046</v>
+      </c>
+      <c r="D54" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="6">
+        <v>23523</v>
+      </c>
+      <c r="D55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>308</v>
+      </c>
+      <c r="B56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C56" s="6">
+        <v>24986</v>
+      </c>
+      <c r="D56" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="6">
+        <v>26589</v>
+      </c>
+      <c r="D57" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="6">
+        <v>28284</v>
+      </c>
+      <c r="D58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="6">
+        <v>32855</v>
+      </c>
+      <c r="D59" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="6">
+        <v>32920</v>
+      </c>
+      <c r="D60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="6">
+        <v>33286</v>
+      </c>
+      <c r="D61" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="6">
+        <v>36830</v>
+      </c>
+      <c r="D62" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="6">
+        <v>29515</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="6">
+        <v>35006</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="6">
         <v>138</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D65" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4055</v>
+      </c>
+      <c r="D66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="6">
+        <v>4758</v>
+      </c>
+      <c r="D67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="6">
+        <v>6359</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="6">
+        <v>6774</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="6">
+        <v>8930</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="6">
+        <v>9041</v>
+      </c>
+      <c r="D71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>348</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="6">
+        <v>9271</v>
+      </c>
+      <c r="D72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>347</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="6">
+        <v>10608</v>
+      </c>
+      <c r="D73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="6">
+        <v>11384</v>
+      </c>
+      <c r="D74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="6">
+        <v>15665</v>
+      </c>
+      <c r="D75" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="6">
+        <v>16967</v>
+      </c>
+      <c r="D76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>344</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="6">
+        <v>16989</v>
+      </c>
+      <c r="D77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>342</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="6">
+        <v>17033</v>
+      </c>
+      <c r="D78" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>343</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="6">
+        <v>17466</v>
+      </c>
+      <c r="D79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" t="s">
         <v>204</v>
       </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="6">
-        <v>4055</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="6">
-        <v>6359</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="6">
-        <v>6774</v>
-      </c>
-      <c r="D5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C80" s="6">
+        <v>19274</v>
+      </c>
+      <c r="D80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="6">
+        <v>20117</v>
+      </c>
+      <c r="D81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="6">
+        <v>20889</v>
+      </c>
+      <c r="D82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="6">
+        <v>22497</v>
+      </c>
+      <c r="D83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="6">
+        <v>26292</v>
+      </c>
+      <c r="D84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" s="6">
+        <v>28480</v>
+      </c>
+      <c r="D85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>236</v>
+      </c>
+      <c r="B86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="6">
+        <v>28515</v>
+      </c>
+      <c r="D86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="6">
+        <v>32794</v>
+      </c>
+      <c r="D87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="6">
+        <v>37624</v>
+      </c>
+      <c r="D88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="6">
+        <v>7444</v>
+      </c>
+      <c r="D89" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="6">
-        <v>7444</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="6">
-        <v>11384</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="C90" s="6">
         <v>13501</v>
       </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="6">
-        <v>13708</v>
-      </c>
-      <c r="D9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="6">
-        <v>15535</v>
-      </c>
-      <c r="D10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="6">
-        <v>15665</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="6">
-        <v>16967</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="6">
-        <v>19274</v>
-      </c>
-      <c r="D13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="6">
-        <v>19952</v>
-      </c>
-      <c r="D14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="6">
-        <v>20117</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>282</v>
-      </c>
-      <c r="B16" t="s">
-        <v>283</v>
-      </c>
-      <c r="C16" s="6">
-        <v>20889</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="6">
-        <v>21343</v>
-      </c>
-      <c r="D17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="6">
-        <v>21426</v>
-      </c>
-      <c r="D18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="6">
-        <v>22497</v>
-      </c>
-      <c r="D19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="6">
-        <v>22978</v>
-      </c>
-      <c r="D20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="6">
-        <v>23622</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>212</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="6">
-        <v>24727</v>
-      </c>
-      <c r="D22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="6">
-        <v>25106</v>
-      </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="6">
-        <v>26292</v>
-      </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="6">
-        <v>26589</v>
-      </c>
-      <c r="D25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="6">
-        <v>28056</v>
-      </c>
-      <c r="D26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="6">
-        <v>28284</v>
-      </c>
-      <c r="D27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="6">
-        <v>28480</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>239</v>
-      </c>
-      <c r="B29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="6">
-        <v>28515</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="6">
-        <v>29515</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>199</v>
-      </c>
-      <c r="B31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31" s="6">
-        <v>30732</v>
-      </c>
-      <c r="D31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="6">
-        <v>32794</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="6">
-        <v>32855</v>
-      </c>
-      <c r="D33" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="6">
-        <v>32920</v>
-      </c>
-      <c r="D34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="6">
-        <v>35006</v>
-      </c>
-      <c r="D35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>225</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="6">
-        <v>35060</v>
-      </c>
-      <c r="D36" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="6">
-        <v>35309</v>
-      </c>
-      <c r="D37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="6">
-        <v>36830</v>
-      </c>
-      <c r="D38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="6">
-        <v>37624</v>
-      </c>
-      <c r="D39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" t="s">
-        <v>119</v>
+      <c r="D90" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
-    <sortCondition ref="C2:C39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F90">
+    <sortCondition ref="D2:D90"/>
+    <sortCondition ref="C2:C90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database/files/import.xlsx
+++ b/database/files/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\pforret\Code\generation\database\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1F9C66-1AC4-421B-A97B-7143F6BACF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1816F3A1-7E3C-4F8A-BF18-EE1A2298D222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31770" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="2445" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generations" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="people" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">people!$A$1:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">people!$A$1:$E$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="374">
   <si>
     <t>title</t>
   </si>
@@ -600,33 +600,6 @@
     <t>https://www.corriere.it/cronache/20_gennaio_30/coronavirus-italia-corona-9d6dc436-4343-11ea-bdc8-faf1f56f19b7.shtml</t>
   </si>
   <si>
-    <t>/images/generations/generation.lost.jpg</t>
-  </si>
-  <si>
-    <t>/images/generations/generation.interbellum.jpg</t>
-  </si>
-  <si>
-    <t>/images/generations/generation.greatest.jpg</t>
-  </si>
-  <si>
-    <t>/images/generations/generation.silent.jpg</t>
-  </si>
-  <si>
-    <t>/images/generations/generation.boomers.jpg</t>
-  </si>
-  <si>
-    <t>/images/generations/generation.x.jpg</t>
-  </si>
-  <si>
-    <t>/images/generations/generation.y.jpg</t>
-  </si>
-  <si>
-    <t>/images/generations/generation.z.jpg</t>
-  </si>
-  <si>
-    <t>/images/generations/generation.alpha.jpg</t>
-  </si>
-  <si>
     <t>Trevor Noah</t>
   </si>
   <si>
@@ -906,21 +879,12 @@
     <t>Steven Spielberg</t>
   </si>
   <si>
-    <t>Stanley Kubrick</t>
-  </si>
-  <si>
     <t>Director</t>
   </si>
   <si>
-    <t>Francis Ford Coppola</t>
-  </si>
-  <si>
     <t>Musician</t>
   </si>
   <si>
-    <t>"Prince" Rogers Nelson</t>
-  </si>
-  <si>
     <t>Actor</t>
   </si>
   <si>
@@ -1035,9 +999,6 @@
     <t>Ryan Gosling</t>
   </si>
   <si>
-    <t>/images/people/joe_biden.jpg</t>
-  </si>
-  <si>
     <t>/images/people/aoc.jpg</t>
   </si>
   <si>
@@ -1081,6 +1042,118 @@
   </si>
   <si>
     <t>Religion</t>
+  </si>
+  <si>
+    <t>literature</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Harry_Potter#Development_history</t>
+  </si>
+  <si>
+    <t>The book "Harry Potter and the Philosopher's Stone" is published, the first of a very successful series</t>
+  </si>
+  <si>
+    <t>The movie "Harry Potter and the Philosopher's Stone" is released</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Harry_Potter_(film_series)#Reception</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Color television in Canada was launched on the Canadian Broadcasting Corporation's (CBC) English language TV service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBC made the first coast-to-coast color TV broadcast </t>
+  </si>
+  <si>
+    <t>BBC2 starts transmittin TV in color</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Brazil began TV broadcasting in color using PAL-M</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>In Japan, NHK and NTV introduces color television</t>
+  </si>
+  <si>
+    <t>the Movie "Apocalyse Now" is released</t>
+  </si>
+  <si>
+    <t>The movie "Citizen Kane" is released</t>
+  </si>
+  <si>
+    <t>/images/generations/baby_boomers_generation.jpg</t>
+  </si>
+  <si>
+    <t>/images/generations/generation_x.jpg</t>
+  </si>
+  <si>
+    <t>/images/generations/millennials_generation.jpg</t>
+  </si>
+  <si>
+    <t>/images/generations/greatest_generation.jpg</t>
+  </si>
+  <si>
+    <t>/images/generations/silent_generation.jpg</t>
+  </si>
+  <si>
+    <t>/images/generations/interbellum_generation.jpg</t>
+  </si>
+  <si>
+    <t>/images/generations/lost_generation.jpg</t>
+  </si>
+  <si>
+    <t>/images/generations/generation_z.jpg</t>
+  </si>
+  <si>
+    <t>Charli D'Amelio</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>/images/generations/alpha_generation.jpg</t>
+  </si>
+  <si>
+    <t>The first atomic bomb falls on Hiroshima</t>
+  </si>
+  <si>
+    <t>Hiroshima, Japan</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Interbellum_Generation</t>
+  </si>
+  <si>
+    <t>The name comes from the fact that those born during this time were too young to have served in the military during World War I, and were generally too old to serve as enlisted personnel in World War II though many of them joined the armed forces then</t>
+  </si>
+  <si>
+    <t>Digital Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The term digital native describes a person who has grown up in the information age. Often grouped into Millennials, Generation Z, and Generation Alpha, these individuals can consume digital information and stimuli quickly and comfortably through electronic devices and platforms such as computers, mobile phones, and social media.
+</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Digital_native</t>
+  </si>
+  <si>
+    <t>Nicolas Cage</t>
+  </si>
+  <si>
+    <t>Brigitte Bardot</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1511,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1562,7 @@
         <v>1900</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>189</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,7 +1579,7 @@
         <v>1913</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>190</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1523,7 +1596,7 @@
         <v>1924</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>191</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1540,7 +1613,7 @@
         <v>1945</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>192</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,7 +1633,7 @@
         <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>193</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1580,7 +1653,7 @@
         <v>143</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>194</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1600,7 +1673,7 @@
         <v>142</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>195</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1620,7 +1693,7 @@
         <v>177</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,7 +1710,7 @@
         <v>2024</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>197</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B034CB5-2331-46B2-809D-3814645508A9}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,6 +1891,40 @@
         <v>179</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{66BE17C1-8EF3-4F8A-94C4-03187A01D91B}"/>
@@ -1827,8 +1934,11 @@
     <hyperlink ref="D7" r:id="rId5" xr:uid="{F73AE107-055C-486C-BFD3-A3395A88E039}"/>
     <hyperlink ref="D8" r:id="rId6" xr:uid="{7205D65A-B314-473A-9BCE-84CF6E10587A}"/>
     <hyperlink ref="D9" r:id="rId7" xr:uid="{E1F87D47-A271-40C2-B1A6-F6F5D973DF9A}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{D217AB54-241A-445C-8853-CD210422C9EE}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{5CD6C510-4447-4301-8790-E2B908E2791B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1846,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2767A71C-EE11-4B74-AD89-9BB89734587C}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,7 +2011,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B3" s="1">
         <v>5293</v>
@@ -1910,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -1930,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -1972,7 +2082,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B7" s="1">
         <v>14594</v>
@@ -1981,857 +2091,851 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>352</v>
       </c>
       <c r="B8" s="1">
-        <v>15317</v>
+        <v>15097</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>16229</v>
+        <v>15317</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>366</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>16557</v>
+        <v>16229</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1">
-        <v>22020</v>
+        <v>16557</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="B12" s="1">
-        <v>22083</v>
+        <v>16655</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>345</v>
       </c>
       <c r="B13" s="1">
-        <v>22862</v>
+        <v>19725</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>23327</v>
+        <v>22020</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="B15" s="1">
-        <v>26372</v>
+        <v>22083</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
+      <c r="D15" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B16" s="1">
-        <v>26686</v>
+        <v>22169</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>347</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
-        <v>27249</v>
+        <v>22862</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>23327</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="1">
-        <v>28270</v>
-      </c>
-      <c r="C18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>221</v>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c r="B19" s="1">
-        <v>28353</v>
+        <v>23416</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="B20" s="1">
-        <v>28871</v>
+        <v>24351</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>346</v>
       </c>
       <c r="B21" s="1">
-        <v>29105</v>
+        <v>24654</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="B22" s="1">
-        <v>29373</v>
+        <v>26348</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>349</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="B23" s="1">
-        <v>29563</v>
+        <v>26372</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
-        <v>29724</v>
+        <v>26686</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>181</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>182</v>
+      <c r="E24" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
-        <v>29799</v>
+        <v>27249</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="B26" s="1">
-        <v>30284</v>
+        <v>28270</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>146</v>
+        <v>222</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1">
-        <v>30388</v>
+        <v>28353</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>158</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B28" s="1">
-        <v>30981</v>
+        <v>28871</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
       <c r="B29" s="1">
-        <v>31018</v>
+        <v>28994</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1">
-        <v>31241</v>
+        <v>29105</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>223</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
-        <v>31322</v>
+        <v>29373</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>184</v>
+        <v>224</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="B32" s="1">
-        <v>31528</v>
+        <v>29563</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>60</v>
+        <v>223</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="B33" s="1">
-        <v>32336</v>
+        <v>29724</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
-        <v>32591</v>
+        <v>29799</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>241</v>
+        <v>224</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="B35" s="1">
-        <v>32821</v>
+        <v>30284</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>63</v>
+        <v>223</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="B36" s="1">
-        <v>33187</v>
+        <v>30388</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B37" s="1">
-        <v>34425</v>
+        <v>30981</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B38" s="1">
-        <v>34455</v>
+        <v>31018</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="D38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>218</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="B39" s="1">
-        <v>34599</v>
+        <v>31241</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="B40" s="1">
-        <v>34935</v>
+        <v>31322</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>271</v>
+        <v>181</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1">
-        <v>35278</v>
+        <v>31528</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>150</v>
+        <v>58</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="B42" s="1">
-        <v>35735</v>
+        <v>32336</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="B43" s="1">
-        <v>35821</v>
+        <v>32591</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1">
-        <v>36962</v>
+        <v>32821</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>212</v>
+        <v>11</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="B45" s="1">
-        <v>37145</v>
+        <v>33187</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>70</v>
+        <v>222</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="B46" s="1">
-        <v>37257</v>
+        <v>34425</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="B47" s="1">
-        <v>38018</v>
+        <v>34455</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
+        <v>222</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B48" s="1">
-        <v>38218</v>
+        <v>34599</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B49" s="1">
-        <v>38581</v>
+        <v>34935</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="D49" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>152</v>
       </c>
       <c r="B50" s="1">
-        <v>38967</v>
+        <v>35278</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>223</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="B51" s="1">
-        <v>39034</v>
+        <v>35607</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>258</v>
+        <v>337</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="B52" s="1">
-        <v>39262</v>
+        <v>35735</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
+        <v>222</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B53" s="1">
-        <v>40157</v>
+        <v>35821</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>215</v>
+        <v>11</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="B54" s="1">
-        <v>40613</v>
+        <v>36962</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>79</v>
+        <v>223</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1">
-        <v>40909</v>
+        <v>37145</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>258</v>
+        <v>69</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="B56" s="1">
-        <v>41008</v>
+        <v>37211</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>258</v>
+        <v>222</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="B57" s="1">
-        <v>41105</v>
+        <v>37257</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>149</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1">
-        <v>41426</v>
+        <v>38018</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B59" s="1">
-        <v>41466</v>
+        <v>38218</v>
       </c>
       <c r="C59" t="s">
         <v>81</v>
       </c>
       <c r="D59" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,221 +2943,375 @@
         <v>260</v>
       </c>
       <c r="B60" s="1">
-        <v>41689</v>
+        <v>38581</v>
       </c>
       <c r="C60" t="s">
         <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="B61" s="1">
-        <v>41882</v>
+        <v>38967</v>
       </c>
       <c r="C61" t="s">
         <v>81</v>
       </c>
       <c r="D61" t="s">
-        <v>313</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="B62" s="1">
-        <v>42408</v>
+        <v>39034</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="B63" s="1">
-        <v>42682</v>
+        <v>39262</v>
       </c>
       <c r="C63" t="s">
         <v>81</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>82</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="B64" s="1">
-        <v>43770</v>
+        <v>40157</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="D64" t="s">
-        <v>258</v>
+        <v>222</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="B65" s="1">
-        <v>43861</v>
+        <v>40613</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>188</v>
+        <v>58</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="B66" s="1">
-        <v>43862</v>
+        <v>40909</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>248</v>
       </c>
       <c r="B67" s="1">
-        <v>44647</v>
+        <v>41008</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B68" s="1">
-        <v>44736</v>
+        <v>41105</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>223</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="B69" s="1">
-        <v>23416</v>
+        <v>41426</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" s="1">
+        <v>41466</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" s="1">
+        <v>41689</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" s="1">
+        <v>41882</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" t="s">
+        <v>301</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="1">
+        <v>42408</v>
+      </c>
+      <c r="C73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="1">
+        <v>42682</v>
+      </c>
+      <c r="C74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43770</v>
+      </c>
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43861</v>
+      </c>
+      <c r="C76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" t="s">
+        <v>181</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="1">
+        <v>44647</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="1">
+        <v>44736</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F68">
-    <sortCondition ref="B2:B68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F79">
+    <sortCondition ref="B2:B79"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E45" r:id="rId1" xr:uid="{73B8BB24-D13B-43CD-9DD9-9EC9FE307216}"/>
-    <hyperlink ref="E67" r:id="rId2" xr:uid="{95F104DE-5312-4D5B-A7AC-5124985D788C}"/>
-    <hyperlink ref="E32" r:id="rId3" xr:uid="{9182495F-7DD4-4A67-B4BF-DFCF381A4594}"/>
-    <hyperlink ref="E54" r:id="rId4" xr:uid="{CEBAAEB6-6F12-4FFB-B21F-DC79C27539F6}"/>
-    <hyperlink ref="E35" r:id="rId5" location="Fall" xr:uid="{0377D654-2EB3-4A8E-B75F-1EA5A36E3696}"/>
-    <hyperlink ref="E14" r:id="rId6" location="Assassination" xr:uid="{F47F6948-BCB6-4E62-823B-B015BAEDA68F}"/>
-    <hyperlink ref="E66" r:id="rId7" xr:uid="{D3D94A30-A492-4C80-958D-337595E39C55}"/>
-    <hyperlink ref="E43" r:id="rId8" xr:uid="{8FEA499D-E571-4502-BD12-FF0819D92F29}"/>
-    <hyperlink ref="E46" r:id="rId9" xr:uid="{61B26E90-ACC4-4EB2-A5AA-443DF6D76E36}"/>
-    <hyperlink ref="E63" r:id="rId10" location="Election_to_the_presidency" xr:uid="{2F0658E3-84D6-482A-9BFC-819A083C3EE2}"/>
-    <hyperlink ref="E25" r:id="rId11" xr:uid="{76D0356A-547D-4157-A81E-DED414E12A17}"/>
-    <hyperlink ref="E22" r:id="rId12" location="History" xr:uid="{A07E510B-24ED-4BCF-BC8A-46D27A3E67DB}"/>
-    <hyperlink ref="E17" r:id="rId13" xr:uid="{B163297A-167F-49FC-92EA-BF1E5BC2F684}"/>
+    <hyperlink ref="E55" r:id="rId1" xr:uid="{73B8BB24-D13B-43CD-9DD9-9EC9FE307216}"/>
+    <hyperlink ref="E78" r:id="rId2" xr:uid="{95F104DE-5312-4D5B-A7AC-5124985D788C}"/>
+    <hyperlink ref="E41" r:id="rId3" xr:uid="{9182495F-7DD4-4A67-B4BF-DFCF381A4594}"/>
+    <hyperlink ref="E65" r:id="rId4" xr:uid="{CEBAAEB6-6F12-4FFB-B21F-DC79C27539F6}"/>
+    <hyperlink ref="E44" r:id="rId5" location="Fall" xr:uid="{0377D654-2EB3-4A8E-B75F-1EA5A36E3696}"/>
+    <hyperlink ref="E18" r:id="rId6" location="Assassination" xr:uid="{F47F6948-BCB6-4E62-823B-B015BAEDA68F}"/>
+    <hyperlink ref="E77" r:id="rId7" xr:uid="{D3D94A30-A492-4C80-958D-337595E39C55}"/>
+    <hyperlink ref="E53" r:id="rId8" xr:uid="{8FEA499D-E571-4502-BD12-FF0819D92F29}"/>
+    <hyperlink ref="E57" r:id="rId9" xr:uid="{61B26E90-ACC4-4EB2-A5AA-443DF6D76E36}"/>
+    <hyperlink ref="E74" r:id="rId10" location="Election_to_the_presidency" xr:uid="{2F0658E3-84D6-482A-9BFC-819A083C3EE2}"/>
+    <hyperlink ref="E34" r:id="rId11" xr:uid="{76D0356A-547D-4157-A81E-DED414E12A17}"/>
+    <hyperlink ref="E31" r:id="rId12" location="History" xr:uid="{A07E510B-24ED-4BCF-BC8A-46D27A3E67DB}"/>
+    <hyperlink ref="E25" r:id="rId13" xr:uid="{B163297A-167F-49FC-92EA-BF1E5BC2F684}"/>
     <hyperlink ref="E6" r:id="rId14" location="Dictatorship" xr:uid="{98020449-AEF3-4BA4-95FE-48E964D1AD9B}"/>
-    <hyperlink ref="E10" r:id="rId15" location="Defeat_and_death" xr:uid="{73AB2272-F4BD-4E2C-B69E-D5BD605CDEDD}"/>
-    <hyperlink ref="E9" r:id="rId16" xr:uid="{5BFB67FB-E8F5-47CD-B26D-3A2D510A4DB9}"/>
+    <hyperlink ref="E11" r:id="rId15" location="Defeat_and_death" xr:uid="{73AB2272-F4BD-4E2C-B69E-D5BD605CDEDD}"/>
+    <hyperlink ref="E10" r:id="rId16" xr:uid="{5BFB67FB-E8F5-47CD-B26D-3A2D510A4DB9}"/>
     <hyperlink ref="E3" r:id="rId17" xr:uid="{92BC3AA0-B598-4525-88AD-C82BB38E9039}"/>
     <hyperlink ref="E5" r:id="rId18" xr:uid="{CBCB58CF-5F06-46B4-BB15-D01403ABC74F}"/>
     <hyperlink ref="E4" r:id="rId19" xr:uid="{17207490-F1FB-4FF9-A7A1-71DD61A62FC3}"/>
-    <hyperlink ref="E16" r:id="rId20" xr:uid="{00495467-393D-4DE0-8056-2FF6932BBF50}"/>
-    <hyperlink ref="E13" r:id="rId21" location="Death_and_funera" xr:uid="{7D500552-17EF-4477-9C8E-9748C81CF1D5}"/>
+    <hyperlink ref="E24" r:id="rId20" xr:uid="{00495467-393D-4DE0-8056-2FF6932BBF50}"/>
+    <hyperlink ref="E17" r:id="rId21" location="Death_and_funera" xr:uid="{7D500552-17EF-4477-9C8E-9748C81CF1D5}"/>
     <hyperlink ref="E2" r:id="rId22" location="20th_century" xr:uid="{DA8DA31F-1C75-4F48-A1F2-CC65D1703780}"/>
-    <hyperlink ref="E11" r:id="rId23" xr:uid="{BFEB7C8A-3BC5-4CEB-9E7E-DC8D07A52BCC}"/>
-    <hyperlink ref="E26" r:id="rId24" xr:uid="{C6DD965C-3B09-4BE2-8467-2ACC58D50448}"/>
-    <hyperlink ref="E57" r:id="rId25" xr:uid="{DACF147B-5D80-43B7-BFDD-C2AFD7A963CC}"/>
-    <hyperlink ref="E41" r:id="rId26" xr:uid="{A2D48D40-4A66-4B16-A516-6F78450CD8D5}"/>
-    <hyperlink ref="E21" r:id="rId27" xr:uid="{D04A4216-3D71-4ECB-BF9E-703018B8EBED}"/>
-    <hyperlink ref="E27" r:id="rId28" xr:uid="{85C40BF3-01C8-4774-950E-C2C31081D501}"/>
-    <hyperlink ref="F24" r:id="rId29" location="History" xr:uid="{5763E96F-E9E0-4F37-82EC-BAEF2EA69500}"/>
-    <hyperlink ref="E24" r:id="rId30" location="History" xr:uid="{79042FA3-5915-45F4-853C-2EB6BA4F598D}"/>
-    <hyperlink ref="E31" r:id="rId31" location="Illness_and_death" xr:uid="{07780F80-F64A-4C42-92F5-14F3ABD19425}"/>
-    <hyperlink ref="E65" r:id="rId32" xr:uid="{B992CFDB-8A5D-45EE-9BE0-F7C5E6E84377}"/>
-    <hyperlink ref="E44" r:id="rId33" xr:uid="{261CE7AD-6E6B-4EC9-A694-D6F88FA2A768}"/>
-    <hyperlink ref="E38" r:id="rId34" location="Reception" xr:uid="{23BEA831-97A5-4E10-8966-1C5C026E04BE}"/>
-    <hyperlink ref="E62" r:id="rId35" location="Release" xr:uid="{7E35B5D9-24A1-4F0A-BF7B-7C64667C6839}"/>
-    <hyperlink ref="E33" r:id="rId36" location="Release" xr:uid="{1666FAAA-8BCE-4B26-9161-14A011BC7A76}"/>
-    <hyperlink ref="E36" r:id="rId37" location="Release" xr:uid="{FBC2BC87-03CC-4ACB-80B7-1BA12D36C59F}"/>
-    <hyperlink ref="E34" r:id="rId38" xr:uid="{5F432170-CEA7-415A-B04A-4911E2EB0E98}"/>
+    <hyperlink ref="E14" r:id="rId23" xr:uid="{BFEB7C8A-3BC5-4CEB-9E7E-DC8D07A52BCC}"/>
+    <hyperlink ref="E35" r:id="rId24" xr:uid="{C6DD965C-3B09-4BE2-8467-2ACC58D50448}"/>
+    <hyperlink ref="E68" r:id="rId25" xr:uid="{DACF147B-5D80-43B7-BFDD-C2AFD7A963CC}"/>
+    <hyperlink ref="E50" r:id="rId26" xr:uid="{A2D48D40-4A66-4B16-A516-6F78450CD8D5}"/>
+    <hyperlink ref="E30" r:id="rId27" xr:uid="{D04A4216-3D71-4ECB-BF9E-703018B8EBED}"/>
+    <hyperlink ref="E36" r:id="rId28" xr:uid="{85C40BF3-01C8-4774-950E-C2C31081D501}"/>
+    <hyperlink ref="F33" r:id="rId29" location="History" xr:uid="{5763E96F-E9E0-4F37-82EC-BAEF2EA69500}"/>
+    <hyperlink ref="E33" r:id="rId30" location="History" xr:uid="{79042FA3-5915-45F4-853C-2EB6BA4F598D}"/>
+    <hyperlink ref="E40" r:id="rId31" location="Illness_and_death" xr:uid="{07780F80-F64A-4C42-92F5-14F3ABD19425}"/>
+    <hyperlink ref="E76" r:id="rId32" xr:uid="{B992CFDB-8A5D-45EE-9BE0-F7C5E6E84377}"/>
+    <hyperlink ref="E54" r:id="rId33" xr:uid="{261CE7AD-6E6B-4EC9-A694-D6F88FA2A768}"/>
+    <hyperlink ref="E47" r:id="rId34" location="Reception" xr:uid="{23BEA831-97A5-4E10-8966-1C5C026E04BE}"/>
+    <hyperlink ref="E73" r:id="rId35" location="Release" xr:uid="{7E35B5D9-24A1-4F0A-BF7B-7C64667C6839}"/>
+    <hyperlink ref="E42" r:id="rId36" location="Release" xr:uid="{1666FAAA-8BCE-4B26-9161-14A011BC7A76}"/>
+    <hyperlink ref="E45" r:id="rId37" location="Release" xr:uid="{FBC2BC87-03CC-4ACB-80B7-1BA12D36C59F}"/>
+    <hyperlink ref="E43" r:id="rId38" xr:uid="{5F432170-CEA7-415A-B04A-4911E2EB0E98}"/>
     <hyperlink ref="E7" r:id="rId39" location="Release" xr:uid="{E6985E87-5136-4949-A78D-81602FA46C41}"/>
-    <hyperlink ref="E42" r:id="rId40" location="Release_and_reception" xr:uid="{468BD8F7-D5D9-4E09-B0DF-5C526264F0C7}"/>
-    <hyperlink ref="E23" r:id="rId41" location="Murder:_8_December_1980" xr:uid="{14C421BD-8028-4C5A-9949-6049A5FFAD5F}"/>
-    <hyperlink ref="E61" r:id="rId42" xr:uid="{DE3AEFD9-D38F-4FC5-AAE8-F53D1F1801A3}"/>
+    <hyperlink ref="E52" r:id="rId40" location="Release_and_reception" xr:uid="{468BD8F7-D5D9-4E09-B0DF-5C526264F0C7}"/>
+    <hyperlink ref="E32" r:id="rId41" location="Murder:_8_December_1980" xr:uid="{14C421BD-8028-4C5A-9949-6049A5FFAD5F}"/>
+    <hyperlink ref="E72" r:id="rId42" xr:uid="{DE3AEFD9-D38F-4FC5-AAE8-F53D1F1801A3}"/>
+    <hyperlink ref="E51" r:id="rId43" location="Development_history" xr:uid="{467C4987-CC58-4641-B7D9-421918E63CF2}"/>
+    <hyperlink ref="E56" r:id="rId44" location="Reception" xr:uid="{A04773AC-4B88-423C-B223-A8B95E95FBB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3963B6BB-15F4-4FA3-944E-310632D772C0}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,918 +3345,915 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="C2" s="6">
-        <v>5940</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="6">
-        <v>9649</v>
+        <v>4055</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6">
-        <v>10717</v>
+        <v>4758</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="6">
-        <v>13627</v>
+        <v>5940</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="6">
-        <v>14726</v>
+        <v>6359</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="C7" s="6">
-        <v>14942</v>
+        <v>6774</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
+        <v>265</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="C8" s="6">
-        <v>15535</v>
+        <v>7444</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="6">
-        <v>15935</v>
+        <v>8930</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="C10" s="6">
-        <v>19152</v>
+        <v>9041</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C11" s="6">
-        <v>22663</v>
+        <v>9271</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6">
-        <v>23622</v>
+        <v>9649</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="C13" s="6">
-        <v>24352</v>
+        <v>9913</v>
       </c>
       <c r="D13" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6">
-        <v>24643</v>
+        <v>10608</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="C15" s="6">
-        <v>25106</v>
+        <v>10717</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="C16" s="6">
-        <v>25245</v>
+        <v>11384</v>
       </c>
       <c r="D16" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="C17" s="6">
-        <v>25706</v>
+        <v>12690</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="C18" s="6">
-        <v>27147</v>
+        <v>13118</v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="C19" s="6">
-        <v>27613</v>
+        <v>13501</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6">
-        <v>28056</v>
+        <v>13627</v>
       </c>
       <c r="D20" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C21" s="6">
-        <v>28811</v>
+        <v>13708</v>
       </c>
       <c r="D21" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6">
-        <v>29537</v>
+        <v>14726</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23" s="6">
-        <v>31545</v>
+        <v>14942</v>
       </c>
       <c r="D23" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C24" s="6">
-        <v>32478</v>
+        <v>15510</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C25" s="6">
-        <v>32712</v>
+        <v>15535</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="6">
-        <v>32972</v>
+        <v>15662</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6">
-        <v>32978</v>
+        <v>15665</v>
       </c>
       <c r="D27" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="C28" s="6">
-        <v>33056</v>
+        <v>15913</v>
       </c>
       <c r="D28" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s">
         <v>81</v>
       </c>
       <c r="C29" s="6">
-        <v>33100</v>
+        <v>15935</v>
       </c>
       <c r="D29" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="6">
-        <v>35060</v>
+        <v>16967</v>
       </c>
       <c r="D30" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C31" s="6">
-        <v>35217</v>
+        <v>16989</v>
       </c>
       <c r="D31" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="6">
-        <v>35309</v>
+        <v>17033</v>
       </c>
       <c r="D32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="6">
+        <v>17154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>330</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="6">
+        <v>17466</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="6">
+        <v>19152</v>
+      </c>
+      <c r="D35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="6">
+        <v>19274</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="6">
+        <v>19952</v>
+      </c>
+      <c r="D37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="6">
+        <v>20117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="6">
+        <v>20889</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="6">
+        <v>21343</v>
+      </c>
+      <c r="D40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="6">
+        <v>21426</v>
+      </c>
+      <c r="D41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>304</v>
+      </c>
+      <c r="B42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C42" s="6">
+        <v>22046</v>
+      </c>
+      <c r="D42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="6">
+        <v>22497</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="6">
+        <v>22663</v>
+      </c>
+      <c r="D44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="6">
+        <v>22978</v>
+      </c>
+      <c r="D45" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>279</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="6">
+        <v>23097</v>
+      </c>
+      <c r="D46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="6">
+        <v>23119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>372</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="6">
+        <v>23383</v>
+      </c>
+      <c r="D48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>307</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="6">
+        <v>23523</v>
+      </c>
+      <c r="D49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="6">
+        <v>23622</v>
+      </c>
+      <c r="D50" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C51" s="6">
+        <v>24352</v>
+      </c>
+      <c r="D51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C52" s="6">
+        <v>24643</v>
+      </c>
+      <c r="D52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="6">
+        <v>24727</v>
+      </c>
+      <c r="D53" t="s">
+        <v>306</v>
+      </c>
+      <c r="F53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B54" t="s">
+        <v>293</v>
+      </c>
+      <c r="C54" s="6">
+        <v>24986</v>
+      </c>
+      <c r="D54" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="6">
+        <v>25106</v>
+      </c>
+      <c r="D55" t="s">
         <v>284</v>
       </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="6">
-        <v>35685</v>
-      </c>
-      <c r="D33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>323</v>
       </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="6">
-        <v>37526</v>
-      </c>
-      <c r="D34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>238</v>
-      </c>
-      <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="6">
-        <v>13708</v>
-      </c>
-      <c r="D35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="6">
-        <v>22978</v>
-      </c>
-      <c r="D36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>330</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="6">
-        <v>23119</v>
-      </c>
-      <c r="D37" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="6">
-        <v>24727</v>
-      </c>
-      <c r="D38" t="s">
-        <v>318</v>
-      </c>
-      <c r="F38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C39" s="6">
-        <v>30732</v>
-      </c>
-      <c r="D39" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>317</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="6">
-        <v>34289</v>
-      </c>
-      <c r="D40" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>346</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="6">
-        <v>9913</v>
-      </c>
-      <c r="D41" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>291</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="6">
-        <v>10435</v>
-      </c>
-      <c r="D42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>328</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="6">
-        <v>13118</v>
-      </c>
-      <c r="D43" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="6">
+        <v>25245</v>
+      </c>
+      <c r="D56" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>319</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="6">
+        <v>25706</v>
+      </c>
+      <c r="D57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>324</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="6">
+        <v>25779</v>
+      </c>
+      <c r="D58" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="6">
+        <v>26292</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="6">
+        <v>26589</v>
+      </c>
+      <c r="D60" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="6">
+        <v>27147</v>
+      </c>
+      <c r="D61" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" t="s">
         <v>293</v>
       </c>
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="6">
-        <v>14342</v>
-      </c>
-      <c r="D44" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>289</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="6">
-        <v>15662</v>
-      </c>
-      <c r="D45" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>290</v>
-      </c>
-      <c r="B46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="6">
-        <v>17154</v>
-      </c>
-      <c r="D46" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>247</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C62" s="6">
+        <v>27613</v>
+      </c>
+      <c r="D62" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="6">
-        <v>19952</v>
-      </c>
-      <c r="D47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>288</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="6">
-        <v>23097</v>
-      </c>
-      <c r="D48" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>337</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="6">
-        <v>25779</v>
-      </c>
-      <c r="D49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>281</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="6">
-        <v>15510</v>
-      </c>
-      <c r="D50" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>282</v>
-      </c>
-      <c r="B51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="6">
-        <v>15913</v>
-      </c>
-      <c r="D51" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>295</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="6">
-        <v>21343</v>
-      </c>
-      <c r="D52" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="6">
-        <v>21426</v>
-      </c>
-      <c r="D53" t="s">
-        <v>294</v>
-      </c>
-      <c r="E53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>316</v>
-      </c>
-      <c r="B54" t="s">
-        <v>298</v>
-      </c>
-      <c r="C54" s="6">
-        <v>22046</v>
-      </c>
-      <c r="D54" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>319</v>
-      </c>
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="6">
-        <v>23523</v>
-      </c>
-      <c r="D55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>308</v>
-      </c>
-      <c r="B56" t="s">
-        <v>305</v>
-      </c>
-      <c r="C56" s="6">
-        <v>24986</v>
-      </c>
-      <c r="D56" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="6">
-        <v>26589</v>
-      </c>
-      <c r="D57" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C63" s="6">
+        <v>28056</v>
+      </c>
+      <c r="D63" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>106</v>
       </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="6">
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="6">
         <v>28284</v>
       </c>
-      <c r="D58" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="6">
-        <v>32855</v>
-      </c>
-      <c r="D59" t="s">
-        <v>294</v>
-      </c>
-      <c r="E59" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" s="6">
-        <v>32920</v>
-      </c>
-      <c r="D60" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="D64" t="s">
         <v>283</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="6">
-        <v>33286</v>
-      </c>
-      <c r="D61" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="6">
-        <v>36830</v>
-      </c>
-      <c r="D62" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>107</v>
-      </c>
-      <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="6">
-        <v>29515</v>
-      </c>
-      <c r="D63" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="6">
-        <v>35006</v>
-      </c>
-      <c r="D64" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="C65" s="6">
-        <v>138</v>
+        <v>28480</v>
       </c>
       <c r="D65" t="s">
-        <v>349</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="C66" s="6">
-        <v>4055</v>
+        <v>28515</v>
       </c>
       <c r="D66" t="s">
         <v>96</v>
@@ -4006,353 +4261,395 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C67" s="6">
-        <v>4758</v>
+        <v>28811</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
         <v>81</v>
       </c>
       <c r="C68" s="6">
-        <v>6359</v>
+        <v>29515</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>200</v>
+        <v>321</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="C69" s="6">
-        <v>6774</v>
+        <v>29537</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B70" t="s">
         <v>81</v>
       </c>
       <c r="C70" s="6">
-        <v>8930</v>
+        <v>29617</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>339</v>
+        <v>189</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="C71" s="6">
-        <v>9041</v>
+        <v>30732</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C72" s="6">
-        <v>9271</v>
+        <v>31545</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="B73" t="s">
         <v>81</v>
       </c>
       <c r="C73" s="6">
-        <v>10608</v>
+        <v>32478</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="C74" s="6">
-        <v>11384</v>
+        <v>32712</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
         <v>81</v>
       </c>
       <c r="C75" s="6">
-        <v>15665</v>
+        <v>32794</v>
       </c>
       <c r="D75" t="s">
         <v>96</v>
       </c>
       <c r="F75" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
         <v>81</v>
       </c>
       <c r="C76" s="6">
-        <v>16967</v>
+        <v>32855</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>283</v>
+      </c>
+      <c r="E76" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>344</v>
+        <v>112</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C77" s="6">
-        <v>16989</v>
+        <v>32920</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="B78" t="s">
         <v>81</v>
       </c>
       <c r="C78" s="6">
-        <v>17033</v>
+        <v>32972</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C79" s="6">
-        <v>17466</v>
+        <v>32978</v>
       </c>
       <c r="D79" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
       <c r="C80" s="6">
-        <v>19274</v>
+        <v>33056</v>
       </c>
       <c r="D80" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="6">
+        <v>33100</v>
+      </c>
+      <c r="D81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="6">
+        <v>33286</v>
+      </c>
+      <c r="D82" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="6">
+        <v>34289</v>
+      </c>
+      <c r="D83" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="6">
+        <v>34394</v>
+      </c>
+      <c r="D84" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="6">
+        <v>35006</v>
+      </c>
+      <c r="D85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="6">
+        <v>35060</v>
+      </c>
+      <c r="D86" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="6">
+        <v>35217</v>
+      </c>
+      <c r="D87" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="6">
+        <v>35309</v>
+      </c>
+      <c r="D88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>275</v>
+      </c>
+      <c r="B89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="6">
+        <v>35685</v>
+      </c>
+      <c r="D89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="6">
+        <v>36830</v>
+      </c>
+      <c r="D90" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>311</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="6">
+        <v>37526</v>
+      </c>
+      <c r="D91" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="6">
+        <v>37624</v>
+      </c>
+      <c r="D92" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>207</v>
-      </c>
-      <c r="B81" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="6">
-        <v>20117</v>
-      </c>
-      <c r="D81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>279</v>
-      </c>
-      <c r="B82" t="s">
-        <v>280</v>
-      </c>
-      <c r="C82" s="6">
-        <v>20889</v>
-      </c>
-      <c r="D82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="6">
-        <v>22497</v>
-      </c>
-      <c r="D83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="6">
-        <v>26292</v>
-      </c>
-      <c r="D84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>205</v>
-      </c>
-      <c r="B85" t="s">
-        <v>206</v>
-      </c>
-      <c r="C85" s="6">
-        <v>28480</v>
-      </c>
-      <c r="D85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>236</v>
-      </c>
-      <c r="B86" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" s="6">
-        <v>28515</v>
-      </c>
-      <c r="D86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>109</v>
-      </c>
-      <c r="B87" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="6">
-        <v>32794</v>
-      </c>
-      <c r="D87" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C88" s="6">
-        <v>37624</v>
-      </c>
-      <c r="D88" t="s">
-        <v>96</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="E92" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>274</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C89" s="6">
-        <v>7444</v>
-      </c>
-      <c r="D89" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>276</v>
-      </c>
-      <c r="B90" t="s">
-        <v>277</v>
-      </c>
-      <c r="C90" s="6">
-        <v>13501</v>
-      </c>
-      <c r="D90" t="s">
-        <v>349</v>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="6">
+        <v>38108</v>
+      </c>
+      <c r="D93" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F90">
-    <sortCondition ref="D2:D90"/>
-    <sortCondition ref="C2:C90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F93">
+    <sortCondition ref="C2:C93"/>
+    <sortCondition ref="D2:D93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
